--- a/teaching/traditional_assets/database/data/kazakhstan/kazakhstan_oil_gas_distribution.xlsx
+++ b/teaching/traditional_assets/database/data/kazakhstan/kazakhstan_oil_gas_distribution.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0286</v>
+        <v>0.0219</v>
       </c>
       <c r="E2">
-        <v>-0.0424</v>
+        <v>0.0438</v>
       </c>
       <c r="G2">
-        <v>0.4559230894573896</v>
+        <v>0.542016806722689</v>
       </c>
       <c r="H2">
-        <v>0.4559230894573896</v>
+        <v>0.542016806722689</v>
       </c>
       <c r="I2">
-        <v>0.2390418771386671</v>
+        <v>0.2495432955791012</v>
       </c>
       <c r="J2">
-        <v>0.1939222624245119</v>
+        <v>0.2016615331548593</v>
       </c>
       <c r="K2">
-        <v>105.3</v>
+        <v>137.3</v>
       </c>
       <c r="L2">
-        <v>0.1715822062897181</v>
+        <v>0.2508220679576179</v>
       </c>
       <c r="M2">
-        <v>99.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="N2">
-        <v>0.0959566647320565</v>
+        <v>0.1065823642316812</v>
       </c>
       <c r="O2">
-        <v>0.9420702754036088</v>
+        <v>0.6875455207574653</v>
       </c>
       <c r="P2">
-        <v>99.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.0959566647320565</v>
+        <v>0.1065823642316812</v>
       </c>
       <c r="R2">
-        <v>0.9420702754036088</v>
+        <v>0.6875455207574653</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,70 +639,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>98.5</v>
+        <v>122.4</v>
       </c>
       <c r="V2">
-        <v>0.09527955117043917</v>
+        <v>0.1381957773512476</v>
       </c>
       <c r="W2">
-        <v>0.06160776971682658</v>
+        <v>0.07798034872493895</v>
       </c>
       <c r="X2">
-        <v>0.08071511551878841</v>
+        <v>0.05391033240602998</v>
       </c>
       <c r="Y2">
-        <v>-0.01910734580196182</v>
+        <v>0.02407001631890897</v>
       </c>
       <c r="Z2">
-        <v>0.3784067085953879</v>
+        <v>0.3268449964174827</v>
       </c>
       <c r="AA2">
-        <v>0.0733814850474306</v>
+        <v>0.06591206308154406</v>
       </c>
       <c r="AB2">
-        <v>0.08033664051798053</v>
+        <v>0.0538261111247697</v>
       </c>
       <c r="AC2">
-        <v>-0.006955155470549937</v>
+        <v>0.01208595195677436</v>
       </c>
       <c r="AD2">
-        <v>12.6</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>12.6</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="AG2">
-        <v>-85.90000000000001</v>
+        <v>-113.79</v>
       </c>
       <c r="AH2">
-        <v>0.01204128440366973</v>
+        <v>0.009627534076550636</v>
       </c>
       <c r="AI2">
-        <v>0.007105396717983421</v>
+        <v>0.005648086800795062</v>
       </c>
       <c r="AJ2">
-        <v>-0.0906213735626121</v>
+        <v>-0.1474135585754816</v>
       </c>
       <c r="AK2">
-        <v>-0.05128970623358013</v>
+        <v>-0.0811620459197866</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-5.9</v>
+        <v>-5.58</v>
       </c>
       <c r="AN2">
-        <v>0.04407135362014691</v>
+        <v>0.0328125</v>
       </c>
       <c r="AP2">
-        <v>-0.3004547044421127</v>
+        <v>-0.4336509146341464</v>
       </c>
       <c r="AQ2">
-        <v>-24.86440677966101</v>
+        <v>-24.48028673835125</v>
       </c>
     </row>
     <row r="3">
@@ -722,46 +722,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0286</v>
+        <v>0.0219</v>
       </c>
       <c r="E3">
-        <v>-0.0424</v>
+        <v>0.0438</v>
       </c>
       <c r="G3">
-        <v>0.4559230894573896</v>
+        <v>0.542016806722689</v>
       </c>
       <c r="H3">
-        <v>0.4559230894573896</v>
+        <v>0.542016806722689</v>
       </c>
       <c r="I3">
-        <v>0.2390418771386671</v>
+        <v>0.2495432955791012</v>
       </c>
       <c r="J3">
-        <v>0.1939222624245119</v>
+        <v>0.2016615331548593</v>
       </c>
       <c r="K3">
-        <v>105.3</v>
+        <v>137.3</v>
       </c>
       <c r="L3">
-        <v>0.1715822062897181</v>
+        <v>0.2508220679576179</v>
       </c>
       <c r="M3">
-        <v>99.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="N3">
-        <v>0.0959566647320565</v>
+        <v>0.1065823642316812</v>
       </c>
       <c r="O3">
-        <v>0.9420702754036088</v>
+        <v>0.6875455207574653</v>
       </c>
       <c r="P3">
-        <v>99.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.0959566647320565</v>
+        <v>0.1065823642316812</v>
       </c>
       <c r="R3">
-        <v>0.9420702754036088</v>
+        <v>0.6875455207574653</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,70 +770,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>98.5</v>
+        <v>122.4</v>
       </c>
       <c r="V3">
-        <v>0.09527955117043917</v>
+        <v>0.1381957773512476</v>
       </c>
       <c r="W3">
-        <v>0.06160776971682658</v>
+        <v>0.07798034872493895</v>
       </c>
       <c r="X3">
-        <v>0.08071511551878841</v>
+        <v>0.05391033240602998</v>
       </c>
       <c r="Y3">
-        <v>-0.01910734580196182</v>
+        <v>0.02407001631890897</v>
       </c>
       <c r="Z3">
-        <v>0.3784067085953879</v>
+        <v>0.3268449964174827</v>
       </c>
       <c r="AA3">
-        <v>0.0733814850474306</v>
+        <v>0.06591206308154406</v>
       </c>
       <c r="AB3">
-        <v>0.08033664051798053</v>
+        <v>0.0538261111247697</v>
       </c>
       <c r="AC3">
-        <v>-0.006955155470549937</v>
+        <v>0.01208595195677436</v>
       </c>
       <c r="AD3">
-        <v>12.6</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>12.6</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="AG3">
-        <v>-85.90000000000001</v>
+        <v>-113.79</v>
       </c>
       <c r="AH3">
-        <v>0.01204128440366973</v>
+        <v>0.009627534076550636</v>
       </c>
       <c r="AI3">
-        <v>0.007105396717983421</v>
+        <v>0.005648086800795062</v>
       </c>
       <c r="AJ3">
-        <v>-0.0906213735626121</v>
+        <v>-0.1474135585754816</v>
       </c>
       <c r="AK3">
-        <v>-0.05128970623358013</v>
+        <v>-0.0811620459197866</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-5.9</v>
+        <v>-5.58</v>
       </c>
       <c r="AN3">
-        <v>0.04407135362014691</v>
+        <v>0.0328125</v>
       </c>
       <c r="AP3">
-        <v>-0.3004547044421127</v>
+        <v>-0.4336509146341464</v>
       </c>
       <c r="AQ3">
-        <v>-24.86440677966101</v>
+        <v>-24.48028673835125</v>
       </c>
     </row>
   </sheetData>
